--- a/dist/Data/BoardList.xlsx
+++ b/dist/Data/BoardList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meru\Google 드라이브\파이썬\ProjectDC\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectRURI\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="9120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,117 +19,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>boardName</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>fileName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>BoardName</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>유머게시판</t>
+  </si>
+  <si>
+    <t>Humor</t>
   </si>
   <si>
     <t>community/board/300143</t>
   </si>
   <si>
+    <t>정치유머게시판</t>
+  </si>
+  <si>
+    <t>PoliHumor</t>
+  </si>
+  <si>
     <t>community/board/300148</t>
   </si>
   <si>
+    <t>취미유머게시판</t>
+  </si>
+  <si>
+    <t>HobbyHumor</t>
+  </si>
+  <si>
+    <t>hobby/board/300143</t>
+  </si>
+  <si>
+    <t>질문게시판</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>community/board/300142</t>
+  </si>
+  <si>
+    <t>자유게시판</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>community/board/300141</t>
+  </si>
+  <si>
+    <t>토론게시판</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>community/board/300152</t>
+  </si>
+  <si>
+    <t>스포츠게시판</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>소녀전선게시판</t>
+  </si>
+  <si>
+    <t>GirlsFrontLine</t>
+  </si>
+  <si>
+    <t>family/4382/board/184404</t>
+  </si>
+  <si>
+    <t>WOW게시판</t>
+  </si>
+  <si>
     <t>WOW</t>
   </si>
   <si>
-    <t>family/4382/board/184404</t>
-  </si>
-  <si>
-    <t>질문게시판</t>
-  </si>
-  <si>
     <t>family/4454/board/100159</t>
   </si>
   <si>
-    <t>hobby/board/300143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취미유머게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유머게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Humor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PoliHumor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GirlsFrontLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HobbyHumor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스포츠게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sports</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sports/board/300141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>community/board/300142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WOW게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소녀전선게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정치유머게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>community/board/300141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토론게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>community/board/300152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Topic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>community/board/300579</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트코인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitCoin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -145,16 +137,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -169,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,44 +182,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,131 +493,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
